--- a/Квалиф/_3ПКС-320/ПП 3ИСИП-020, 520 — копия.xlsx
+++ b/Квалиф/_3ПКС-320/ПП 3ИСИП-020, 520 — копия.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kpzhukov\Downloads\Проверка экзамена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\Квалиф\_3ПКС-320\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C641C9EE-7740-440D-ACA0-3E46BEA802B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="510" windowWidth="24615" windowHeight="13740"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="020" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'020'!$A$3:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'520'!$A$3:$T$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -342,7 +356,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -701,24 +715,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -727,24 +740,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,6 +804,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,12 +843,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,36 +850,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,78 +1155,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="9" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" customWidth="1"/>
-    <col min="12" max="14" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" customWidth="1"/>
+    <col min="5" max="9" width="5.26953125" customWidth="1"/>
+    <col min="11" max="11" width="31.453125" customWidth="1"/>
+    <col min="12" max="14" width="6.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
-    </row>
-    <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="56"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="43"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>3</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1235,15 +1236,15 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8">
         <f>IF(I5&gt;40,IF(I5&lt;61,3,IF(I5&gt;60,IF(I5&lt;81,4,IF(I5&gt;80,5,)),)),2)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14">
         <f>SUM(F5:H5)</f>
         <v>0</v>
       </c>
@@ -1253,13 +1254,13 @@
       <c r="L5" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41">
+      <c r="M5" s="48"/>
+      <c r="N5" s="48">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1269,28 +1270,28 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9">
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
         <f t="shared" ref="E6:E28" si="0">IF(I6&gt;40,IF(I6&lt;61,3,IF(I6&gt;60,IF(I6&lt;81,4,IF(I6&gt;80,5,)),)),2)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="15">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14">
         <f t="shared" ref="I6:I28" si="1">SUM(F6:H6)</f>
         <v>0</v>
       </c>
       <c r="K6" s="46"/>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="41"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1300,31 +1301,31 @@
       <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9">
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>58</v>
       </c>
       <c r="L7" s="2">
         <v>10</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="48">
+      <c r="N7" s="53">
         <f>SUM(L7:L15)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1334,32 +1335,32 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>48</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>62</v>
       </c>
       <c r="L8" s="2">
         <v>5</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="49"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="54"/>
+    </row>
+    <row r="9" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1369,28 +1370,28 @@
       <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>63</v>
       </c>
       <c r="L9" s="2">
         <v>5</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="49"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="54"/>
+    </row>
+    <row r="10" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1400,34 +1401,34 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>6</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>43</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>18</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>64</v>
       </c>
       <c r="L10" s="2">
         <v>5</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="49"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="54"/>
+    </row>
+    <row r="11" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1437,28 +1438,28 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9">
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>65</v>
       </c>
       <c r="L11" s="2">
         <v>5</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="49"/>
-    </row>
-    <row r="12" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="54"/>
+    </row>
+    <row r="12" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1468,28 +1469,28 @@
       <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9">
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="22" t="s">
         <v>66</v>
       </c>
       <c r="L12" s="2">
         <v>5</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="54"/>
+    </row>
+    <row r="13" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1499,28 +1500,28 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9">
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>67</v>
       </c>
       <c r="L13" s="2">
         <v>5</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="49"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="54"/>
+    </row>
+    <row r="14" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1530,28 +1531,28 @@
       <c r="C14" s="2">
         <v>5</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9">
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>68</v>
       </c>
       <c r="L14" s="2">
         <v>5</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="49"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="54"/>
+    </row>
+    <row r="15" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1561,28 +1562,28 @@
       <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9">
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="2">
         <v>5</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="50"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="55"/>
+    </row>
+    <row r="16" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1592,20 +1593,20 @@
       <c r="C16" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9">
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1615,21 +1616,21 @@
       <c r="C17" s="2">
         <v>5</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="15">
         <v>50</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>37</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15">
+      <c r="H17" s="15"/>
+      <c r="I17" s="14">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
@@ -1639,13 +1640,13 @@
       <c r="L17" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41">
+      <c r="M17" s="48"/>
+      <c r="N17" s="48">
         <f>SUM(M19:M28)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1655,28 +1656,28 @@
       <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9">
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="46"/>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="41"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="48"/>
+    </row>
+    <row r="19" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1686,25 +1687,25 @@
       <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>19</v>
       </c>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="15">
         <v>47</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>37</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15">
+      <c r="H19" s="15"/>
+      <c r="I19" s="14">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>71</v>
       </c>
       <c r="L19" s="2">
@@ -1713,12 +1714,12 @@
       <c r="M19" s="2">
         <v>5</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="49">
         <f>SUM(L19:L28)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1728,25 +1729,25 @@
       <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>15</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>48</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>20</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15">
+      <c r="H20" s="15"/>
+      <c r="I20" s="14">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>72</v>
       </c>
       <c r="L20" s="2">
@@ -1755,9 +1756,9 @@
       <c r="M20" s="2">
         <v>5</v>
       </c>
-      <c r="N20" s="42"/>
-    </row>
-    <row r="21" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="49"/>
+    </row>
+    <row r="21" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1767,19 +1768,19 @@
       <c r="C21" s="2">
         <v>5</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9">
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>73</v>
       </c>
       <c r="L21" s="2">
@@ -1788,9 +1789,9 @@
       <c r="M21" s="2">
         <v>5</v>
       </c>
-      <c r="N21" s="42"/>
-    </row>
-    <row r="22" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="49"/>
+    </row>
+    <row r="22" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1800,19 +1801,19 @@
       <c r="C22" s="2">
         <v>5</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9">
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>74</v>
       </c>
       <c r="L22" s="2">
@@ -1821,9 +1822,9 @@
       <c r="M22" s="2">
         <v>5</v>
       </c>
-      <c r="N22" s="42"/>
-    </row>
-    <row r="23" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="49"/>
+    </row>
+    <row r="23" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1833,19 +1834,19 @@
       <c r="C23" s="2">
         <v>5</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9">
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="15">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>75</v>
       </c>
       <c r="L23" s="2">
@@ -1854,9 +1855,9 @@
       <c r="M23" s="2">
         <v>5</v>
       </c>
-      <c r="N23" s="42"/>
-    </row>
-    <row r="24" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="49"/>
+    </row>
+    <row r="24" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1866,28 +1867,28 @@
       <c r="C24" s="2">
         <v>5</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9">
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="15">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>76</v>
       </c>
       <c r="L24" s="2">
         <v>5</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="42"/>
-    </row>
-    <row r="25" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="49"/>
+    </row>
+    <row r="25" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1897,28 +1898,28 @@
       <c r="C25" s="2">
         <v>5</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9">
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="15">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="15" t="s">
         <v>77</v>
       </c>
       <c r="L25" s="2">
         <v>5</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="42"/>
-    </row>
-    <row r="26" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="49"/>
+    </row>
+    <row r="26" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1928,25 +1929,25 @@
       <c r="C26" s="2">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>3</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>45</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>23</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="15">
+      <c r="H26" s="15"/>
+      <c r="I26" s="14">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="15" t="s">
         <v>78</v>
       </c>
       <c r="L26" s="2">
@@ -1955,9 +1956,9 @@
       <c r="M26" s="2">
         <v>5</v>
       </c>
-      <c r="N26" s="42"/>
-    </row>
-    <row r="27" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="49"/>
+    </row>
+    <row r="27" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1967,19 +1968,19 @@
       <c r="C27" s="2">
         <v>5</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9">
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="15">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="15" t="s">
         <v>79</v>
       </c>
       <c r="L27" s="2">
@@ -1988,9 +1989,9 @@
       <c r="M27" s="2">
         <v>2</v>
       </c>
-      <c r="N27" s="42"/>
-    </row>
-    <row r="28" spans="1:14" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="49"/>
+    </row>
+    <row r="28" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2000,44 +2001,39 @@
       <c r="C28" s="2">
         <v>4</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <v>16</v>
       </c>
-      <c r="E28" s="20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F28" s="18">
+      <c r="E28" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F28" s="17">
         <v>48</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <v>35</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="21">
+      <c r="H28" s="17"/>
+      <c r="I28" s="20">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="2">
         <v>5</v>
       </c>
       <c r="M28" s="2">
         <v>5</v>
       </c>
-      <c r="N28" s="42"/>
-    </row>
-    <row r="29" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="N28" s="49"/>
+    </row>
+    <row r="29" spans="1:14" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="N19:N28"/>
     <mergeCell ref="D3:I3"/>
@@ -2045,73 +2041,78 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="N7:N15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="5" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="3" max="5" width="7.7265625" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="11" width="5.140625" customWidth="1"/>
+    <col min="7" max="11" width="5.1796875" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="20" width="5.140625" customWidth="1"/>
+    <col min="13" max="20" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-    </row>
-    <row r="2" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+    </row>
+    <row r="2" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
@@ -2146,26 +2147,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="24" t="s">
+    <row r="4" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>1</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>2</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>3</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>54</v>
       </c>
       <c r="L4" s="46" t="s">
@@ -2174,442 +2175,442 @@
       <c r="M4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41">
+      <c r="N4" s="48"/>
+      <c r="O4" s="48">
         <f>SUM(N6:N14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="28">
-        <v>5</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="27">
+        <v>5</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f>IF(I5&gt;40,IF(I5&lt;61,3,IF(I5&gt;60,IF(I5&lt;81,4,IF(I5&gt;80,5,)),)),2)</f>
         <v>3</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>37</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <v>9</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33">
+      <c r="H5" s="31"/>
+      <c r="I5" s="32">
         <f>SUM(F5:H5)</f>
         <v>46</v>
       </c>
       <c r="L5" s="46"/>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="41"/>
-    </row>
-    <row r="6" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>4</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <f t="shared" ref="E6:E28" si="0">IF(I6&gt;40,IF(I6&lt;61,3,IF(I6&gt;60,IF(I6&lt;81,4,IF(I6&gt;80,5,)),)),2)</f>
         <v>3</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>30</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>12</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="33">
+      <c r="H6" s="35"/>
+      <c r="I6" s="32">
         <f t="shared" ref="I6:I28" si="1">SUM(F6:H6)</f>
         <v>42</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>81</v>
       </c>
       <c r="M6" s="2">
         <v>10</v>
       </c>
       <c r="N6" s="2"/>
-      <c r="O6" s="48">
+      <c r="O6" s="53">
         <f>SUM(M6:M14)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="34">
-        <v>5</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="33">
+        <v>5</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>50</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>21</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="33">
+      <c r="H7" s="35"/>
+      <c r="I7" s="32">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>62</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="49"/>
-    </row>
-    <row r="8" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="34">
-        <v>5</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="33">
+        <v>5</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>50</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>10</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="33">
+      <c r="H8" s="35"/>
+      <c r="I8" s="32">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>63</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="49"/>
-    </row>
-    <row r="9" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="54"/>
+    </row>
+    <row r="9" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>4</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>45</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>20</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="33">
+      <c r="H9" s="35"/>
+      <c r="I9" s="32">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="15" t="s">
         <v>64</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="49"/>
-    </row>
-    <row r="10" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>4</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>39</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>15</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="33">
+      <c r="H10" s="35"/>
+      <c r="I10" s="32">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="15" t="s">
         <v>65</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="49"/>
-    </row>
-    <row r="11" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>4</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>30</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>13</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="33">
+      <c r="H11" s="35"/>
+      <c r="I11" s="32">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="22" t="s">
         <v>66</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="49"/>
-    </row>
-    <row r="12" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="34">
-        <v>5</v>
-      </c>
-      <c r="D12" s="35">
+      <c r="C12" s="33">
+        <v>5</v>
+      </c>
+      <c r="D12" s="34">
         <v>13</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <v>45</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <v>20</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="33">
+      <c r="H12" s="35"/>
+      <c r="I12" s="32">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>67</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="49"/>
-    </row>
-    <row r="13" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="34">
-        <v>5</v>
-      </c>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="33">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <v>45</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>19</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="33">
+      <c r="H13" s="35"/>
+      <c r="I13" s="32">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="15" t="s">
         <v>68</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="49"/>
-    </row>
-    <row r="14" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="34">
-        <v>5</v>
-      </c>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="33">
+        <v>5</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F14" s="36">
+      <c r="E14" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="35">
         <v>50</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <v>40</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="33">
+      <c r="H14" s="35"/>
+      <c r="I14" s="32">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>69</v>
       </c>
       <c r="M14" s="2">
         <v>5</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="50"/>
-    </row>
-    <row r="15" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <v>4</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>50</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <v>12</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="33">
+      <c r="H15" s="35"/>
+      <c r="I15" s="32">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="34">
-        <v>5</v>
-      </c>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="33">
+        <v>5</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <v>50</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <v>16</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="33">
+      <c r="H16" s="35"/>
+      <c r="I16" s="32">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -2619,457 +2620,462 @@
       <c r="M16" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41">
+      <c r="N16" s="48"/>
+      <c r="O16" s="48">
         <f>SUM(N18:N27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="34">
-        <v>5</v>
-      </c>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="33">
+        <v>5</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <v>50</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <v>23</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="33">
+      <c r="H17" s="35"/>
+      <c r="I17" s="32">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="L17" s="46"/>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O17" s="41"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="48"/>
+    </row>
+    <row r="18" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="34">
-        <v>5</v>
-      </c>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="33">
+        <v>5</v>
+      </c>
+      <c r="D18" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <v>36</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <v>30</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="33">
+      <c r="H18" s="35"/>
+      <c r="I18" s="32">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>71</v>
       </c>
       <c r="M18" s="2">
         <v>5</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="42">
+      <c r="O18" s="49">
         <f>SUM(M18:M27)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="34">
-        <v>5</v>
-      </c>
-      <c r="D19" s="35">
+      <c r="C19" s="33">
+        <v>5</v>
+      </c>
+      <c r="D19" s="34">
         <v>10</v>
       </c>
-      <c r="E19" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="36">
+      <c r="E19" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="35">
         <v>43</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>40</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="33">
+      <c r="H19" s="35"/>
+      <c r="I19" s="32">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="15" t="s">
         <v>72</v>
       </c>
       <c r="M19" s="2">
         <v>5</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="42"/>
-    </row>
-    <row r="20" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="49"/>
+    </row>
+    <row r="20" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <v>4</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <v>41</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="33">
+      <c r="H20" s="35"/>
+      <c r="I20" s="32">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="15" t="s">
         <v>73</v>
       </c>
       <c r="M20" s="2">
         <v>5</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="42"/>
-    </row>
-    <row r="21" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="49"/>
+    </row>
+    <row r="21" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="34">
-        <v>5</v>
-      </c>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="33">
+        <v>5</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <v>50</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <v>24</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="33">
+      <c r="H21" s="35"/>
+      <c r="I21" s="32">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>74</v>
       </c>
       <c r="M21" s="2">
         <v>5</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="42"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="49"/>
+    </row>
+    <row r="22" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="34">
-        <v>5</v>
-      </c>
-      <c r="D22" s="35" t="s">
+      <c r="C22" s="33">
+        <v>5</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="35">
         <v>40</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <v>18</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="33">
+      <c r="H22" s="35"/>
+      <c r="I22" s="32">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="J22">
         <v>4</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="15" t="s">
         <v>75</v>
       </c>
       <c r="M22" s="2">
         <v>5</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="42"/>
-    </row>
-    <row r="23" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="49"/>
+    </row>
+    <row r="23" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="34">
-        <v>5</v>
-      </c>
-      <c r="D23" s="35" t="s">
+      <c r="C23" s="33">
+        <v>5</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="35">
         <v>35</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <v>16</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="33">
+      <c r="H23" s="35"/>
+      <c r="I23" s="32">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="15" t="s">
         <v>76</v>
       </c>
       <c r="M23" s="2">
         <v>5</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="42"/>
-    </row>
-    <row r="24" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="49"/>
+    </row>
+    <row r="24" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="34">
-        <v>5</v>
-      </c>
-      <c r="D24" s="35" t="s">
+      <c r="C24" s="33">
+        <v>5</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F24" s="36">
+      <c r="E24" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F24" s="35">
         <v>50</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="35">
         <v>41</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="33">
+      <c r="H24" s="35"/>
+      <c r="I24" s="32">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="15" t="s">
         <v>77</v>
       </c>
       <c r="M24" s="2">
         <v>5</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="42"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="49"/>
+    </row>
+    <row r="25" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="34">
-        <v>5</v>
-      </c>
-      <c r="D25" s="35" t="s">
+      <c r="C25" s="33">
+        <v>5</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F25" s="36">
+      <c r="E25" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F25" s="35">
         <v>50</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="35">
         <v>41</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="33">
+      <c r="H25" s="35"/>
+      <c r="I25" s="32">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="15" t="s">
         <v>78</v>
       </c>
       <c r="M25" s="2">
         <v>5</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="42"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="49"/>
+    </row>
+    <row r="26" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="34">
-        <v>5</v>
-      </c>
-      <c r="D26" s="35" t="s">
+      <c r="C26" s="33">
+        <v>5</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F26" s="36">
+      <c r="E26" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="35">
         <v>50</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="35">
         <v>48</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="33">
+      <c r="H26" s="35"/>
+      <c r="I26" s="32">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="15" t="s">
         <v>79</v>
       </c>
       <c r="M26" s="2">
         <v>5</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="42"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="49"/>
+    </row>
+    <row r="27" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="33">
         <v>4</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="35">
         <v>50</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="35">
         <v>27</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="33">
+      <c r="H27" s="35"/>
+      <c r="I27" s="32">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="2">
         <v>5</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="42"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="49"/>
+    </row>
+    <row r="28" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="34">
-        <v>5</v>
-      </c>
-      <c r="D28" s="37" t="s">
+      <c r="C28" s="33">
+        <v>5</v>
+      </c>
+      <c r="D28" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="38">
         <v>48</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="38">
         <v>16</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40">
+      <c r="H28" s="38"/>
+      <c r="I28" s="39">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:15" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O6:O14"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O18:O27"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -3077,11 +3083,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O14"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O18:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3089,12 +3090,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
